--- a/biology/Zoologie/Bombus_rubicundus/Bombus_rubicundus.xlsx
+++ b/biology/Zoologie/Bombus_rubicundus/Bombus_rubicundus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bombus rubicundus est une espèce de bourdons que l'on trouve au Guatemala, au Honduras, au Nicaragua, au Costa Rica, au Panama, au Venezuela, en Colombie, en Équateur, au Pérou et en Bolivie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bombus rubicundus est une espèce de bourdons que l'on trouve au Guatemala, au Honduras, au Nicaragua, au Costa Rica, au Panama, au Venezuela, en Colombie, en Équateur, au Pérou et en Bolivie.
 </t>
         </is>
       </c>
